--- a/EVIDENCIAS_EJEUCION/Reporte de Ejecución + Data.xlsx
+++ b/EVIDENCIAS_EJEUCION/Reporte de Ejecución + Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr filterPrivacy="1" updateLinks="never"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EE7729-4511-4390-AB8D-5C689323EB17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E7F24A-A928-45F5-A8E7-9266D787768E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNITARIO" sheetId="10" r:id="rId1"/>
@@ -19,6 +19,8 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DB!$A$1:$A$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'E2E - DOLARES'!$A$1:$AQ$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'E2E - SOLES'!$A$1:$AH$49</definedName>
     <definedName name="Ambiente_Comercio" localSheetId="2">#REF!</definedName>
     <definedName name="Ambiente_Comercio" localSheetId="1">#REF!</definedName>
     <definedName name="Ambiente_Comercio" localSheetId="0">#REF!</definedName>
@@ -1941,7 +1943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872C9813-FC39-4AE2-9357-6520164A30E3}">
   <dimension ref="A1:BF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2:E48"/>
     </sheetView>
@@ -3815,9 +3817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAF6067-BE13-45CD-BE36-965E25660504}">
   <dimension ref="A1:BL52"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7601,6 +7603,7 @@
       <c r="AH52" s="28"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AH49" xr:uid="{70AC17A8-5861-470A-A9F2-4DC05C63D0A3}"/>
   <hyperlinks>
     <hyperlink ref="W3" r:id="rId1" display="mailto:reject@cybersource.com" xr:uid="{92FBE28F-EECD-47C8-9BC5-4373DAC12A74}"/>
     <hyperlink ref="W4" r:id="rId2" display="mailto:reject@cybersource.com" xr:uid="{24BF8571-DBAC-48DE-AA05-A0528F7AA6B9}"/>
@@ -7692,11 +7695,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398B3A06-5FD6-4300-A917-ED15E45FD570}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:BL58"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="E52:E55"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7875,7 +7879,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>86</v>
       </c>
@@ -7974,7 +7978,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>31</v>
       </c>
@@ -8073,7 +8077,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>32</v>
       </c>
@@ -8172,7 +8176,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>33</v>
       </c>
@@ -8271,7 +8275,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>34</v>
       </c>
@@ -8451,7 +8455,7 @@
       <c r="AP7" s="24"/>
       <c r="AQ7" s="28"/>
     </row>
-    <row r="8" spans="1:43" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>36</v>
       </c>
@@ -8552,7 +8556,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:43" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>37</v>
       </c>
@@ -8653,7 +8657,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:43" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>38</v>
       </c>
@@ -8857,7 +8861,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:43" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>40</v>
       </c>
@@ -8958,7 +8962,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:43" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" s="29" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>41</v>
       </c>
@@ -9051,7 +9055,7 @@
       </c>
       <c r="AQ13" s="28"/>
     </row>
-    <row r="14" spans="1:43" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" s="29" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>42</v>
       </c>
@@ -9146,7 +9150,7 @@
       </c>
       <c r="AQ14" s="28"/>
     </row>
-    <row r="15" spans="1:43" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>43</v>
       </c>
@@ -9247,7 +9251,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:43" s="37" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" s="37" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
         <v>44</v>
       </c>
@@ -9346,7 +9350,7 @@
       </c>
       <c r="AQ16" s="54"/>
     </row>
-    <row r="17" spans="1:43" s="37" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" s="37" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
         <v>45</v>
       </c>
@@ -9445,7 +9449,7 @@
       </c>
       <c r="AQ17" s="54"/>
     </row>
-    <row r="18" spans="1:43" s="37" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" s="37" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
         <v>46</v>
       </c>
@@ -9546,7 +9550,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:43" s="37" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" s="37" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34" t="s">
         <v>47</v>
       </c>
@@ -9647,7 +9651,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>48</v>
       </c>
@@ -9750,7 +9754,7 @@
       </c>
       <c r="AQ20" s="28"/>
     </row>
-    <row r="21" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>0</v>
       </c>
@@ -9853,7 +9857,7 @@
       </c>
       <c r="AQ21" s="28"/>
     </row>
-    <row r="22" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>49</v>
       </c>
@@ -9956,7 +9960,7 @@
       </c>
       <c r="AQ22" s="28"/>
     </row>
-    <row r="23" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>50</v>
       </c>
@@ -10059,7 +10063,7 @@
       </c>
       <c r="AQ23" s="28"/>
     </row>
-    <row r="24" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>51</v>
       </c>
@@ -10162,7 +10166,7 @@
       </c>
       <c r="AQ24" s="28"/>
     </row>
-    <row r="25" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>52</v>
       </c>
@@ -10265,7 +10269,7 @@
       </c>
       <c r="AQ25" s="28"/>
     </row>
-    <row r="26" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>53</v>
       </c>
@@ -10368,7 +10372,7 @@
       </c>
       <c r="AQ26" s="28"/>
     </row>
-    <row r="27" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>54</v>
       </c>
@@ -10471,7 +10475,7 @@
       </c>
       <c r="AQ27" s="28"/>
     </row>
-    <row r="28" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>55</v>
       </c>
@@ -10655,7 +10659,7 @@
       </c>
       <c r="AQ29" s="28"/>
     </row>
-    <row r="30" spans="1:43" s="29" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" s="29" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>57</v>
       </c>
@@ -10752,7 +10756,7 @@
       </c>
       <c r="AQ30" s="28"/>
     </row>
-    <row r="31" spans="1:43" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>58</v>
       </c>
@@ -10847,7 +10851,7 @@
       </c>
       <c r="AQ31" s="28"/>
     </row>
-    <row r="32" spans="1:43" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>59</v>
       </c>
@@ -10942,7 +10946,7 @@
       </c>
       <c r="AQ32" s="28"/>
     </row>
-    <row r="33" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>60</v>
       </c>
@@ -11043,7 +11047,7 @@
       </c>
       <c r="AQ33" s="28"/>
     </row>
-    <row r="34" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>61</v>
       </c>
@@ -11148,7 +11152,7 @@
       </c>
       <c r="AQ34" s="28"/>
     </row>
-    <row r="35" spans="1:43" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>62</v>
       </c>
@@ -11243,7 +11247,7 @@
       </c>
       <c r="AQ35" s="28"/>
     </row>
-    <row r="36" spans="1:43" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:43" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>63</v>
       </c>
@@ -11338,7 +11342,7 @@
       </c>
       <c r="AQ36" s="28"/>
     </row>
-    <row r="37" spans="1:43" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:43" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>64</v>
       </c>
@@ -11433,7 +11437,7 @@
       </c>
       <c r="AQ37" s="28"/>
     </row>
-    <row r="38" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>70</v>
       </c>
@@ -11530,7 +11534,7 @@
       </c>
       <c r="AQ38" s="28"/>
     </row>
-    <row r="39" spans="1:43" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>71</v>
       </c>
@@ -11629,7 +11633,7 @@
       </c>
       <c r="AQ39" s="28"/>
     </row>
-    <row r="40" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>72</v>
       </c>
@@ -11726,7 +11730,7 @@
       </c>
       <c r="AQ40" s="28"/>
     </row>
-    <row r="41" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>73</v>
       </c>
@@ -11823,7 +11827,7 @@
       </c>
       <c r="AQ41" s="28"/>
     </row>
-    <row r="42" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>74</v>
       </c>
@@ -11920,7 +11924,7 @@
       </c>
       <c r="AQ42" s="28"/>
     </row>
-    <row r="43" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>75</v>
       </c>
@@ -12023,7 +12027,7 @@
       </c>
       <c r="AQ43" s="28"/>
     </row>
-    <row r="44" spans="1:43" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:43" s="29" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>76</v>
       </c>
@@ -12126,7 +12130,7 @@
       </c>
       <c r="AQ44" s="28"/>
     </row>
-    <row r="45" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>77</v>
       </c>
@@ -12227,7 +12231,7 @@
       </c>
       <c r="AQ45" s="28"/>
     </row>
-    <row r="46" spans="1:43" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:43" s="29" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>78</v>
       </c>
@@ -12330,7 +12334,7 @@
       </c>
       <c r="AQ46" s="28"/>
     </row>
-    <row r="47" spans="1:43" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:43" s="29" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>79</v>
       </c>
@@ -12429,7 +12433,7 @@
       </c>
       <c r="AQ47" s="28"/>
     </row>
-    <row r="48" spans="1:43" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:43" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>80</v>
       </c>
@@ -12528,7 +12532,7 @@
       </c>
       <c r="AQ48" s="28"/>
     </row>
-    <row r="49" spans="1:43" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:43" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>81</v>
       </c>
@@ -12609,7 +12613,7 @@
       <c r="AP49" s="24"/>
       <c r="AQ49" s="28"/>
     </row>
-    <row r="50" spans="1:43" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:43" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>380</v>
       </c>
@@ -12710,7 +12714,7 @@
       </c>
       <c r="AQ50" s="28"/>
     </row>
-    <row r="51" spans="1:43" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:43" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>82</v>
       </c>
@@ -13346,6 +13350,13 @@
       <c r="AP58" s="28"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AQ55" xr:uid="{F7BC65FA-A927-4C0D-AF6E-73D94A00F7D9}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="FAILED"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="AE3" r:id="rId1" display="mailto:reject@cybersource.com" xr:uid="{51489506-0DC2-468F-A1AD-DD55C5C4137A}"/>
     <hyperlink ref="AE4" r:id="rId2" display="mailto:reject@cybersource.com" xr:uid="{47E9447A-2CB3-4EAA-95A0-37458C676582}"/>
